--- a/data/financial_statements/sofp/BXP.xlsx
+++ b/data/financial_statements/sofp/BXP.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>449000000</v>
+        <v>448886000</v>
       </c>
       <c r="C2">
-        <v>503000000</v>
+        <v>502850000</v>
       </c>
       <c r="D2">
-        <v>482000000</v>
+        <v>482343000</v>
       </c>
       <c r="E2">
-        <v>501000000</v>
+        <v>501158000</v>
       </c>
       <c r="F2">
-        <v>1082000000</v>
+        <v>1081921000</v>
       </c>
       <c r="G2">
         <v>637280000</v>
@@ -733,8 +844,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>1319809000</v>
@@ -855,8 +966,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1847287000</v>
@@ -977,8 +1088,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>19427340000</v>
@@ -1099,31 +1210,31 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="M6">
         <v>-689000000</v>
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>1358000000</v>
+        <v>1731412000</v>
       </c>
       <c r="C7">
-        <v>1321000000</v>
+        <v>1641683000</v>
       </c>
       <c r="D7">
-        <v>1372000000</v>
+        <v>1683126000</v>
       </c>
       <c r="E7">
-        <v>1285000000</v>
+        <v>1584440000</v>
       </c>
       <c r="F7">
-        <v>1301000000</v>
+        <v>1512599000</v>
       </c>
       <c r="G7">
         <v>1394011000</v>
@@ -1229,8 +1340,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>21879400000</v>
@@ -1351,23 +1462,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>23727000000</v>
+        <v>23726690000</v>
       </c>
       <c r="C9">
-        <v>23266000000</v>
+        <v>23266430000</v>
       </c>
       <c r="D9">
-        <v>22476000000</v>
+        <v>22475630000</v>
       </c>
       <c r="E9">
-        <v>22365000000</v>
+        <v>22365260000</v>
       </c>
       <c r="F9">
-        <v>22849000000</v>
+        <v>22848810000</v>
       </c>
       <c r="G9">
         <v>22059080000</v>
@@ -1473,8 +1584,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="X10">
         <v>179999900</v>
@@ -1526,8 +1637,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>360572000</v>
@@ -1648,8 +1759,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>91885000</v>
@@ -1770,8 +1881,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C13">
         <v>8000000</v>
@@ -1808,8 +1919,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>452457000</v>
@@ -1930,23 +2041,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>14286000000</v>
+        <v>14080960000</v>
       </c>
       <c r="C15">
-        <v>14096000000</v>
+        <v>13899610000</v>
       </c>
       <c r="D15">
-        <v>13472000000</v>
+        <v>13255680000</v>
       </c>
       <c r="E15">
-        <v>13352000000</v>
+        <v>13141030000</v>
       </c>
       <c r="F15">
-        <v>13826000000</v>
+        <v>13621910000</v>
       </c>
       <c r="G15">
         <v>12779450000</v>
@@ -2052,8 +2163,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>6985000</v>
@@ -2096,16 +2207,16 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H17">
         <v>200000000</v>
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="AE18">
         <v>106233000</v>
@@ -2139,23 +2250,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>1041000000</v>
+        <v>588207000</v>
       </c>
       <c r="C19">
-        <v>1012000000</v>
+        <v>572297000</v>
       </c>
       <c r="D19">
-        <v>963000000</v>
+        <v>567152000</v>
       </c>
       <c r="E19">
-        <v>977000000</v>
+        <v>561300000</v>
       </c>
       <c r="F19">
-        <v>959000000</v>
+        <v>540142000</v>
       </c>
       <c r="G19">
         <v>540708000</v>
@@ -2261,8 +2372,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>14676160000</v>
@@ -2383,23 +2494,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>15327000000</v>
+        <v>15333620000</v>
       </c>
       <c r="C21">
-        <v>15116000000</v>
+        <v>15123760000</v>
       </c>
       <c r="D21">
-        <v>14423000000</v>
+        <v>14433970000</v>
       </c>
       <c r="E21">
-        <v>14322000000</v>
+        <v>14332030000</v>
       </c>
       <c r="F21">
-        <v>14785000000</v>
+        <v>14794060000</v>
       </c>
       <c r="G21">
         <v>13969080000</v>
@@ -2505,8 +2616,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>6532299000</v>
@@ -2627,8 +2738,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="I23">
         <v>200000000</v>
@@ -2728,23 +2839,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>2000000</v>
+        <v>1568000</v>
       </c>
       <c r="C24">
-        <v>2000000</v>
+        <v>1567000</v>
       </c>
       <c r="D24">
-        <v>2000000</v>
+        <v>1567000</v>
       </c>
       <c r="E24">
-        <v>2000000</v>
+        <v>1565000</v>
       </c>
       <c r="F24">
-        <v>2000000</v>
+        <v>1562000</v>
       </c>
       <c r="G24">
         <v>1561000</v>
@@ -2850,23 +2961,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>-360000000</v>
       </c>
       <c r="C25">
-        <v>-567000000</v>
+        <v>-567016000</v>
       </c>
       <c r="D25">
-        <v>-636000000</v>
+        <v>-636421000</v>
       </c>
       <c r="E25">
         <v>-626000000</v>
       </c>
       <c r="F25">
-        <v>-657000000</v>
+        <v>-657021000</v>
       </c>
       <c r="G25">
         <v>-612247000</v>
@@ -2963,8 +3074,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>2722000</v>
@@ -3085,8 +3196,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>-359536000</v>
@@ -3114,23 +3225,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>6163000000</v>
+        <v>8393070000</v>
       </c>
       <c r="C28">
-        <v>5938000000</v>
+        <v>8142668000</v>
       </c>
       <c r="D28">
-        <v>5855000000</v>
+        <v>8041659000</v>
       </c>
       <c r="E28">
-        <v>5844000000</v>
+        <v>8033228000</v>
       </c>
       <c r="F28">
-        <v>5717000000</v>
+        <v>8054748000</v>
       </c>
       <c r="G28">
         <v>8089993000</v>
@@ -3236,23 +3347,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>6163000000</v>
+        <v>8393071000</v>
       </c>
       <c r="C29">
-        <v>5938000000</v>
+        <v>8142669000</v>
       </c>
       <c r="D29">
-        <v>5855000000</v>
+        <v>8041659000</v>
       </c>
       <c r="E29">
-        <v>5844000000</v>
+        <v>8033228000</v>
       </c>
       <c r="F29">
-        <v>5717000000</v>
+        <v>8054749000</v>
       </c>
       <c r="G29">
         <v>8089993000</v>
@@ -3358,8 +3469,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>23726690000</v>
@@ -3480,8 +3591,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>156755000</v>
@@ -3602,8 +3713,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E32">
         <v>80000</v>
@@ -3715,8 +3826,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>8393071000</v>
@@ -3837,23 +3948,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>13837000000</v>
+        <v>13632074000</v>
       </c>
       <c r="C34">
-        <v>13601000000</v>
+        <v>13404760000</v>
       </c>
       <c r="D34">
-        <v>12978000000</v>
+        <v>12761337000</v>
       </c>
       <c r="E34">
-        <v>12844000000</v>
+        <v>12632872000</v>
       </c>
       <c r="F34">
-        <v>12744000000</v>
+        <v>12539989000</v>
       </c>
       <c r="G34">
         <v>12143170000</v>
@@ -3959,23 +4070,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>14286000000</v>
+        <v>14080960000</v>
       </c>
       <c r="C35">
-        <v>14104000000</v>
+        <v>13907610000</v>
       </c>
       <c r="D35">
-        <v>13460000000</v>
+        <v>13243680000</v>
       </c>
       <c r="E35">
-        <v>13345000000</v>
+        <v>13134030000</v>
       </c>
       <c r="F35">
-        <v>13826000000</v>
+        <v>13621910000</v>
       </c>
       <c r="G35">
         <v>12780450000</v>
